--- a/data/storage_model_inputs.xlsx
+++ b/data/storage_model_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpsta\code\energy-modeling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D8D277-F3C1-4680-9117-CF15CF39E542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D56B9E-031A-4532-9AC2-67BC40615438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{673B1CAA-5412-438B-9658-9FFB10C918E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{673B1CAA-5412-438B-9658-9FFB10C918E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Time-Series Data" sheetId="1" r:id="rId1"/>
@@ -2893,7 +2893,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3545,8 +3545,7 @@
         <v>1E-4</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13" si="4">I12+0.01</f>
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="J13" s="1">
         <v>0.5</v>
@@ -3577,5 +3576,6 @@
     <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>